--- a/meting WV py.xlsx
+++ b/meting WV py.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -448,520 +448,545 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>AX</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>HO</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>all times are in ms</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0.19822258300000994</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.4325662260000098</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.24913242699999438</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.23951368800000328</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.3050883370000048</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>62.33076588000003</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>78.92645529999989</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>25.441004659999855</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>38.781792619999855</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>41.52080139999992</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0.20907766400000893</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.44684048500000406</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.25276847999998786</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.24611179500000624</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.32992223199998527</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>122.09017631999977</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>166.12965471999976</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>50.49119200000014</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>79.59224567999911</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>83.35338906000061</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0.2005448799999856</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.42722659699999443</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.24955723299999466</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.24175142900000246</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.28785810700001324</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>249.80314116000002</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>351.9087772999988</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>106.55403948000043</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>173.29918742000075</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>169.911224439999</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>0.20166190800000638</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.4193909059999843</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.251893276999998</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.24859293000000893</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.29436800800000373</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>509.63340572000135</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>723.9605081800008</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>216.77586504000146</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>353.40306548000285</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>347.88400354000146</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0.20224432799999548</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.4403690539999747</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.25290510699999835</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.24570442900001765</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.3073943589999981</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>1069.528617359997</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>1493.349852399998</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>459.8563705799995</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>757.420346040002</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>742.149670959999</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0.2244098600000104</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.4656349240000299</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.26584070300002516</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.26744511200004517</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.3181791150000244</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>2118.5710676199974</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>2970.9002986600035</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>908.8883996800018</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>1488.6360109800057</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>1461.5822356599938</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>0.2681669280000296</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>0.48598835900001447</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>0.2683477610000313</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>0.28453990099999515</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>0.3530265589999946</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="0" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>0.3499198799999892</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>0.5638578490000032</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>0.309722146999988</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>0.3661008770000098</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>0.40722249499999563</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="0" t="n">
         <v>256</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>0.4674425760000016</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>0.7135840689999693</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>0.3643037780000089</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>0.4255339770000397</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>0.5018588799999932</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="0" t="n">
         <v>512</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>0.6986230820000401</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>1.001408488000017</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>0.46982452199994285</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>0.5882356199999847</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>0.6565962100000249</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="0" t="n">
         <v>1024</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>1.141539745999939</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>1.4361118509999642</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
         <is>
           <t>0.6414004489999989</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>0.8306674099999576</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>0.9327731790000051</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="0" t="n">
         <v>2048</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>2.006734221999995</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>2.381236674000057</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>0.9834474119999967</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>1.3986758880000423</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>1.5116325870000722</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="0" t="n">
         <v>4096</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>3.7445795440000254</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>4.391012384000177</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="0" t="inlineStr">
         <is>
           <t>1.8376736559999927</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>2.679790398000094</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>2.905045419000082</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="0" t="n">
         <v>8192</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>7.863360803999946</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>10.010433613000338</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="0" t="inlineStr">
         <is>
           <t>3.477849666999944</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>5.225874477999952</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>5.548937014000316</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="0" t="n">
         <v>16384</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>16.449345013000183</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>21.311194644000224</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>7.1162996490000126</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>18.321939953000026</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>11.837293549999629</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="0" t="n">
         <v>32768</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>33.54829144299961</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>41.77327275300007</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="0" t="inlineStr">
         <is>
           <t>13.311314692999929</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr">
         <is>
           <t>20.08240810799839</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="0" t="inlineStr">
         <is>
           <t>22.31030346900036</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>65536</v>
+      <c r="F17" s="0" t="n">
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="n">
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="n">
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="n">
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="n">
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="n">
+        <v>4194304</v>
       </c>
     </row>
   </sheetData>

--- a/meting WV py.xlsx
+++ b/meting WV py.xlsx
@@ -965,27 +965,27 @@
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="n">
+      <c r="F18" s="0" t="n">
         <v>262144</v>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="n">
+      <c r="F19" s="0" t="n">
         <v>524288</v>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="n">
+      <c r="F20" s="0" t="n">
         <v>1048576</v>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="n">
+      <c r="F21" s="0" t="n">
         <v>2097152</v>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="n">
+      <c r="F22" s="0" t="n">
         <v>4194304</v>
       </c>
     </row>
